--- a/biology/Botanique/Terence_Macleane_Salter/Terence_Macleane_Salter.xlsx
+++ b/biology/Botanique/Terence_Macleane_Salter/Terence_Macleane_Salter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Terence Macleane Salter (5 février 1883 - 30 mars 1969) était un collectionneur de plantes et botaniste sud-africain. Parmi les taxons végétaux nommés en son honneur figurent le genre Saltera (Penaeaceae) et l'orchidée Disa salteri.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salter était le deuxième enfant d'Emily Susannah Wilding et James Colam Salter. Il est né à Cheltenham, Gloucestershire, Angleterre. Il rejoint la Royal Navy en 1900 et est promu trésorier adjoint en 1901. Il a servi à bord du HMS Majestic à Gibraltar. Il devient capitaine-payeur en 1916[1],[2].
-Il était en poste à la base navale de Simon's Town, en Afrique du Sud, de 1927 jusqu'à sa retraite en 1931 au grade de Paymaster Commander[2]. Au cours de sa mission à Simon's Town, il collectionnait principalement dans la région du Cap. Les spécimens qu'il a collectés au cours de cette période ont été ajoutés à la collection d'herbier des Jardins botaniques royaux de Kew et du Musée d'histoire naturelle de Londres[3],[4].
-Après son émigration vers l'Afrique du Sud en 1935, il reprend son travail de collectionneur, pour les collections d'herbier de l'Institut national sud-africain de la biodiversité et du Bolus Herbarium jusqu'en 1957[3].
-Il a travaillé avec Robert Stephen Adamson, avec qui il a publié Flora of the Cape Peninsula en 1950. Il fut employé à l'Herbier Bolus jusqu'en 1960, période durant laquelle il devint spécialiste de la flore du Cap, en particulier du genre Oxalis[3],[4].
-Il est décédé au Cap à l'âge de 86 ans[2],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salter était le deuxième enfant d'Emily Susannah Wilding et James Colam Salter. Il est né à Cheltenham, Gloucestershire, Angleterre. Il rejoint la Royal Navy en 1900 et est promu trésorier adjoint en 1901. Il a servi à bord du HMS Majestic à Gibraltar. Il devient capitaine-payeur en 1916,.
+Il était en poste à la base navale de Simon's Town, en Afrique du Sud, de 1927 jusqu'à sa retraite en 1931 au grade de Paymaster Commander. Au cours de sa mission à Simon's Town, il collectionnait principalement dans la région du Cap. Les spécimens qu'il a collectés au cours de cette période ont été ajoutés à la collection d'herbier des Jardins botaniques royaux de Kew et du Musée d'histoire naturelle de Londres,.
+Après son émigration vers l'Afrique du Sud en 1935, il reprend son travail de collectionneur, pour les collections d'herbier de l'Institut national sud-africain de la biodiversité et du Bolus Herbarium jusqu'en 1957.
+Il a travaillé avec Robert Stephen Adamson, avec qui il a publié Flora of the Cape Peninsula en 1950. Il fut employé à l'Herbier Bolus jusqu'en 1960, période durant laquelle il devint spécialiste de la flore du Cap, en particulier du genre Oxalis,.
+Il est décédé au Cap à l'âge de 86 ans,.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Éponymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salter a plusieurs taxons végétaux nommés en son honneur, dont le genre Saltera (Penaeaceae), l'orchidée Disa salteri, Lachenalia salteri[5], Lampranthus salteri[6] et Oxalis salteri[4],[7],[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salter a plusieurs taxons végétaux nommés en son honneur, dont le genre Saltera (Penaeaceae), l'orchidée Disa salteri, Lachenalia salteri, Lampranthus salteri et Oxalis salteri.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Notes sur certaines espèces de Drosera présentes dans la péninsule du Cap, y compris les nouvelles espèces D. glabripes (Harv.) Salter et D. curviscapa Salter, 1939
 Le genre Oxalis en Afrique du Sud, une révision taxonomique, 1944</t>
